--- a/xlsx/最高元首_intext.xlsx
+++ b/xlsx/最高元首_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
   <si>
     <t>最高元首</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>馬來西亞國徽</t>
+    <t>马来西亚国徽</t>
   </si>
   <si>
     <t>政策_政策_行政_最高元首</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%AC%E4%BE%86%E4%BA%9E</t>
   </si>
   <si>
-    <t>英屬馬來亞</t>
+    <t>英属马来亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A9%86%E4%B8%89%E9%82%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BD%94%E9%A6%AC%E4%BE%86%E4%BA%9E</t>
   </si>
   <si>
-    <t>日佔馬來亞</t>
+    <t>日佔马来亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E4%BA%9A%E8%81%94%E5%90%88%E9%82%A6</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%9E%8B%E9%9B%A8%E6%9E%97%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶型雨林氣候</t>
+    <t>热带型雨林气候</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environment_of_Malaysia</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>馬來西亞政治</t>
+    <t>马来西亚政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%AE%AA%E6%B3%95</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>馬來西亞政黨</t>
+    <t>马来西亚政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E9%80%89%E4%B8%BE</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%BA%BA%E5%90%8D</t>
   </si>
   <si>
-    <t>馬來西亞人名</t>
+    <t>马来西亚人名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E4%BA%BA%E5%8F%A3</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>馬來西亞華人</t>
+    <t>马来西亚华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%8D%B0%E5%BA%A6%E4%BA%BA</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>馬來西亞宗教</t>
+    <t>马来西亚宗教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Freedom_of_religion_in_Malaysia</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%8F%9C</t>
   </si>
   <si>
-    <t>馬來西亞菜</t>
+    <t>马来西亚菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>馬來西亞世界遺產列表</t>
+    <t>马来西亚世界遗产列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E8%8A%82%E6%97%A5</t>
@@ -377,13 +377,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%86%9B%E4%BA%8B</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E6%B2%BB%E8%80%85%E4%BC%9A%E8%AE%AE</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%9A%87%E5%AE%AB_(%E5%90%89%E9%9A%86%E5%9D%A1)</t>
@@ -473,19 +470,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>馬來西亞憲法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%9C%80%E9%AB%98%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>馬來西亞最高元首</t>
+    <t>马来西亚最高元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>馬來西亞內閣</t>
+    <t>马来西亚内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%90%89%C2%B7%E9%98%BF%E9%83%BD%E6%8B%89%E8%90%A8</t>
@@ -509,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>馬來西亞上議院</t>
+    <t>马来西亚上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E4%BC%9A%E4%B8%8A%E8%AE%AE%E9%99%A2%E4%B8%BB%E5%B8%AD</t>
@@ -521,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>馬來西亞下議院</t>
+    <t>马来西亚下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E4%BC%9A%E4%B8%8B%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
@@ -545,25 +539,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>馬來西亞選舉委員會</t>
+    <t>马来西亚选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>馬來西亞政黨列表</t>
+    <t>马来西亚政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>馬來西亞行政區劃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>Template talk-馬來西亞政治</t>
+    <t>Template talk-马来西亚政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E4%B8%BE%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%BF%A1%E4%BB%BB%E5%8B%95%E8%AD%B0</t>
   </si>
   <si>
-    <t>不信任動議</t>
+    <t>不信任动议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%89</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E5%98%89%E6%A8%93</t>
   </si>
   <si>
-    <t>登嘉樓</t>
+    <t>登嘉楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%89%93</t>
@@ -773,9 +764,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>国家元首</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
@@ -911,25 +899,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C_(%E5%8D%97%E4%BA%AC)</t>
   </si>
   <si>
-    <t>中華民國臨時政府 (南京)</t>
+    <t>中华民国临时政府 (南京)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%A7%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國大總統</t>
+    <t>中华民国大总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>國民政府主席</t>
+    <t>国民政府主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -959,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93%E9%A6%96%E9%A0%98%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>北韓首領列表</t>
+    <t>北韩首领列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -1181,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>北賽普勒斯總統</t>
+    <t>北赛普勒斯总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E6%80%BB%E7%BB%9F</t>
@@ -1283,19 +1271,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>馬來聯邦</t>
+    <t>马来联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E5%B1%AC%E9%82%A6</t>
   </si>
   <si>
-    <t>馬來屬邦</t>
+    <t>马来属邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%A9%86%E7%BE%85%E5%B7%9E</t>
   </si>
   <si>
-    <t>英屬婆羅州</t>
+    <t>英属婆罗州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%82%E6%8B%89%E8%B6%8A%E7%8E%8B%E5%9B%BD</t>
@@ -1313,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A9%86%E7%BE%85%E6%B4%B2</t>
   </si>
   <si>
-    <t>北婆羅洲</t>
+    <t>北婆罗洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%A9%86%E7%BE%85%E6%B4%B2%E6%97%A5%E4%BD%94%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>英屬婆羅洲日佔時期</t>
+    <t>英属婆罗洲日佔时期</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/Pentadbiran_Tentera_British_(Tanah_Melayu)</t>
@@ -1331,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E4%BA%8B%E7%AE%A1%E5%88%B6%E5%8D%80_(%E5%A9%86%E7%BE%85%E6%B4%B2)</t>
   </si>
   <si>
-    <t>英國軍事管制區 (婆羅洲)</t>
+    <t>英国军事管制区 (婆罗洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E4%BA%9A%E8%81%94%E9%82%A6</t>
@@ -1349,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E7%B7%8A%E6%80%A5%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>馬來亞緊急狀態</t>
+    <t>马来亚紧急状态</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Koloni_Singapura</t>
@@ -1379,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A9%86%E7%BE%85%E6%B4%B2%E7%9B%B4%E8%BD%84%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>北婆羅洲直轄殖民地</t>
+    <t>北婆罗洲直辖殖民地</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/Hari_Pemerintahan_Sendiri_Borneo_Utara</t>
@@ -1475,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>亞洲金融危機</t>
+    <t>亚洲金融危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%8E%BF%E4%BB%BD</t>
@@ -1529,15 +1517,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>馬來西亞河流列表</t>
+    <t>马来西亚河流列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>马来西亚政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -1607,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%BB%A4%E5%90%89</t>
   </si>
   <si>
-    <t>馬來西亞令吉</t>
+    <t>马来西亚令吉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -1667,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/Jenayah_di_Malaysia</t>
@@ -1679,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E7%AC%AC%E4%BA%8C%E6%95%85%E9%84%89%E2%80%94%E2%80%94%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>我的第二故鄉——馬來西亞</t>
+    <t>我的第二故乡——马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%A4%A7%E5%AD%A6%E5%88%97%E8%A1%A8</t>
@@ -1721,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬來西亞英語</t>
+    <t>马来西亚英语</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/Kemiskinan_di_Malaysia</t>
@@ -1781,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%A0%B1%E5%88%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>馬來西亞報刊列表</t>
+    <t>马来西亚报刊列表</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/Muzik_Malaysia</t>
@@ -1793,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%85%AC%E5%85%B1%E5%81%87%E6%9C%9F</t>
   </si>
   <si>
-    <t>馬來西亞公共假期</t>
+    <t>马来西亚公共假期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%95%86%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1817,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A%E9%A6%AC%E4%BE%86%E4%BA%BA</t>
   </si>
   <si>
-    <t>汶萊馬來人</t>
+    <t>汶莱马来人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%87%E5%B3%87%E5%A8%98%E6%83%B9</t>
@@ -1877,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E7%A5%96%E5%9C%8B_(%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E)</t>
   </si>
   <si>
-    <t>我的祖國 (馬來西亞)</t>
+    <t>我的祖国 (马来西亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E6%97%97</t>
@@ -1913,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%90%84%E5%B7%9E%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>馬來西亞各州元首</t>
+    <t>马来西亚各州元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E4%BD%9B%E8%8B%8F%E4%B8%B9</t>
@@ -1937,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%98%AD%E4%B8%B9%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>吉蘭丹蘇丹</t>
+    <t>吉兰丹苏丹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Muhriz_of_Negeri_Sembilan</t>
@@ -1955,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E5%A7%91%E8%B3%BD%E8%A5%BF%E6%8B%89%E7%A5%96%E4%B8%81</t>
   </si>
   <si>
-    <t>端姑賽西拉祖丁</t>
+    <t>端姑赛西拉祖丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E6%B2%99%E6%8B%89%E5%BC%97%E4%B8%81</t>
@@ -1985,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%9B%8A%E7%91%AA%E7%9B%AE</t>
   </si>
   <si>
-    <t>泰益瑪目</t>
+    <t>泰益玛目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E6%9C%80%E9%AB%98%E5%85%83%E9%A6%96</t>
@@ -4105,7 +4090,7 @@
         <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="G61" t="n">
         <v>11</v>
@@ -4131,10 +4116,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -4160,10 +4145,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4189,10 +4174,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>7</v>
@@ -4218,10 +4203,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -4247,10 +4232,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -4276,10 +4261,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>8</v>
@@ -4305,10 +4290,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -4334,10 +4319,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>7</v>
@@ -4363,10 +4348,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>11</v>
@@ -4392,10 +4377,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4421,10 +4406,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -4450,10 +4435,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>6</v>
@@ -4479,10 +4464,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>9</v>
@@ -4508,10 +4493,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -4537,10 +4522,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -4595,10 +4580,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4624,10 +4609,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>118</v>
@@ -4682,10 +4667,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4711,10 +4696,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4740,10 +4725,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4769,10 +4754,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4798,10 +4783,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4827,10 +4812,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>13</v>
@@ -4856,10 +4841,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -4885,10 +4870,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4914,10 +4899,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4943,10 +4928,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5001,10 +4986,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5030,10 +5015,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5059,10 +5044,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5088,10 +5073,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G95" t="n">
         <v>7</v>
@@ -5117,10 +5102,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5146,10 +5131,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5175,10 +5160,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -5204,10 +5189,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5233,10 +5218,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5262,10 +5247,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5291,10 +5276,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -5320,10 +5305,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -5349,10 +5334,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -5378,10 +5363,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5407,10 +5392,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5436,10 +5421,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5465,10 +5450,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5494,10 +5479,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5523,10 +5508,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5552,10 +5537,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5581,10 +5566,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F112" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="G112" t="n">
         <v>11</v>
@@ -5610,10 +5595,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" t="s">
         <v>137</v>
-      </c>
-      <c r="F113" t="s">
-        <v>138</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5639,10 +5624,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5668,10 +5653,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5697,10 +5682,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>148</v>
+      </c>
+      <c r="F116" t="s">
         <v>149</v>
-      </c>
-      <c r="F116" t="s">
-        <v>150</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5726,10 +5711,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5755,10 +5740,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5784,10 +5769,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5813,10 +5798,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5842,10 +5827,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5871,10 +5856,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5900,10 +5885,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5929,10 +5914,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5958,10 +5943,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5987,10 +5972,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>7</v>
@@ -6016,10 +6001,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>7</v>
@@ -6045,10 +6030,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6074,10 +6059,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>8</v>
@@ -6103,10 +6088,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6132,10 +6117,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6161,10 +6146,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6190,10 +6175,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>121</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -6219,10 +6204,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6248,10 +6233,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6277,10 +6262,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6306,10 +6291,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6335,10 +6320,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6364,10 +6349,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6393,10 +6378,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6422,10 +6407,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6451,10 +6436,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6480,10 +6465,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6509,10 +6494,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6538,10 +6523,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6567,10 +6552,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6596,10 +6581,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6625,10 +6610,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6654,10 +6639,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6683,10 +6668,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>9</v>
@@ -6712,10 +6697,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6741,10 +6726,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>21</v>
@@ -6770,10 +6755,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>27</v>
@@ -6799,10 +6784,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6828,10 +6813,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6857,10 +6842,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6886,10 +6871,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6915,10 +6900,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6944,10 +6929,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6973,10 +6958,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7002,10 +6987,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7031,10 +7016,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7060,10 +7045,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7089,10 +7074,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7118,10 +7103,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7147,10 +7132,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7176,10 +7161,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7205,10 +7190,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7234,10 +7219,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7263,10 +7248,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7292,10 +7277,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7321,10 +7306,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7350,10 +7335,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7379,10 +7364,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7408,10 +7393,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7437,10 +7422,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7466,10 +7451,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7495,10 +7480,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7524,10 +7509,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7553,10 +7538,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7582,10 +7567,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7611,10 +7596,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7640,10 +7625,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7669,10 +7654,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7698,10 +7683,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7727,10 +7712,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7756,10 +7741,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7785,10 +7770,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7814,10 +7799,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7843,10 +7828,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7872,10 +7857,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7901,10 +7886,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7930,10 +7915,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7959,10 +7944,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7988,10 +7973,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8017,10 +8002,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8046,10 +8031,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8075,10 +8060,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8104,10 +8089,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8133,10 +8118,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8162,10 +8147,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8191,10 +8176,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8220,10 +8205,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8249,10 +8234,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8278,10 +8263,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8307,10 +8292,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8336,10 +8321,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8365,10 +8350,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8394,10 +8379,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8423,10 +8408,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8452,10 +8437,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8481,10 +8466,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8510,10 +8495,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8568,10 +8553,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8597,10 +8582,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8626,10 +8611,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8684,10 +8669,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8713,10 +8698,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8742,10 +8727,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8771,10 +8756,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8800,10 +8785,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8829,10 +8814,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8858,10 +8843,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8887,10 +8872,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>4</v>
@@ -8916,10 +8901,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8945,10 +8930,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8974,10 +8959,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9003,10 +8988,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9032,10 +9017,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9061,10 +9046,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9090,10 +9075,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9119,10 +9104,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9148,10 +9133,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -9177,10 +9162,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9206,10 +9191,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9235,10 +9220,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9264,10 +9249,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9293,10 +9278,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9322,10 +9307,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9351,10 +9336,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9380,10 +9365,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9409,10 +9394,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9438,10 +9423,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9467,10 +9452,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9496,10 +9481,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9525,10 +9510,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9554,10 +9539,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9583,10 +9568,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9612,10 +9597,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9641,10 +9626,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9699,10 +9684,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9728,10 +9713,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9757,10 +9742,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9786,10 +9771,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9844,10 +9829,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9873,10 +9858,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9902,10 +9887,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9931,10 +9916,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9960,10 +9945,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9989,10 +9974,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>48</v>
       </c>
       <c r="G264" t="n">
         <v>4</v>
@@ -10018,10 +10003,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F265" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G265" t="n">
         <v>9</v>
@@ -10047,10 +10032,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G266" t="n">
         <v>8</v>
@@ -10076,10 +10061,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10105,10 +10090,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10134,10 +10119,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10163,10 +10148,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10221,10 +10206,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10250,10 +10235,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F273" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G273" t="n">
         <v>8</v>
@@ -10279,10 +10264,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F274" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10337,10 +10322,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10366,10 +10351,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F277" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10395,10 +10380,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F278" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10424,10 +10409,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F279" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10453,13 +10438,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F280" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10482,10 +10467,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F281" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10511,10 +10496,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F282" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10540,10 +10525,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10569,10 +10554,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F284" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10598,10 +10583,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10627,10 +10612,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10656,10 +10641,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10685,10 +10670,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10714,10 +10699,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F289" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10743,10 +10728,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10772,10 +10757,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10801,10 +10786,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F292" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10830,10 +10815,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F293" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10859,10 +10844,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F294" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10888,10 +10873,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F295" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10917,10 +10902,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F296" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10946,10 +10931,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F297" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10975,10 +10960,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11004,10 +10989,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F299" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11033,10 +11018,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F300" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11062,10 +11047,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F301" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11091,10 +11076,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F302" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11120,10 +11105,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F303" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11178,10 +11163,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11207,10 +11192,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11236,10 +11221,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11265,10 +11250,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F308" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11294,10 +11279,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11323,10 +11308,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11352,10 +11337,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11410,10 +11395,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F313" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11439,10 +11424,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F314" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11468,10 +11453,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F315" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11497,10 +11482,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F316" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11526,10 +11511,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F317" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11555,13 +11540,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F318" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -11584,10 +11569,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F319" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11613,10 +11598,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F320" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11642,10 +11627,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F321" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11671,10 +11656,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F322" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11700,10 +11685,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F323" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11729,10 +11714,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F324" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11758,10 +11743,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F325" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11787,10 +11772,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F326" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11816,10 +11801,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F327" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11874,10 +11859,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F329" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11903,13 +11888,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F330" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -11932,10 +11917,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F331" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11961,10 +11946,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F332" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11990,10 +11975,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F333" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12019,10 +12004,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F334" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12048,10 +12033,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F335" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G335" t="n">
         <v>6</v>
@@ -12077,10 +12062,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F336" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12106,10 +12091,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F337" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12135,10 +12120,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F338" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12164,10 +12149,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F339" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G339" t="n">
         <v>7</v>
@@ -12193,10 +12178,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F340" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12222,10 +12207,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F341" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12251,10 +12236,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F342" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -12280,10 +12265,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F343" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12309,10 +12294,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F344" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G344" t="n">
         <v>5</v>
@@ -12338,10 +12323,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F345" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12367,10 +12352,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F346" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G346" t="n">
         <v>5</v>
@@ -12396,10 +12381,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F347" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12425,10 +12410,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F348" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12454,10 +12439,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F349" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12483,10 +12468,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F350" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12512,10 +12497,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F351" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -12541,10 +12526,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F352" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
